--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value343.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value343.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.323037602398063</v>
+        <v>0.7733245491981506</v>
       </c>
       <c r="B1">
-        <v>3.917739890264064</v>
+        <v>1.45144510269165</v>
       </c>
       <c r="C1">
-        <v>2.847341567057275</v>
+        <v>5.572677612304688</v>
       </c>
       <c r="D1">
-        <v>1.078401087192395</v>
+        <v>3.164451599121094</v>
       </c>
       <c r="E1">
-        <v>0.7651718312874135</v>
+        <v>1.497875452041626</v>
       </c>
     </row>
   </sheetData>
